--- a/01-FatSheepCrisis/Assets/Excel/WeaponConfig.xlsx
+++ b/01-FatSheepCrisis/Assets/Excel/WeaponConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Project\FatSheepCrisis\01-FatSheepCrisis\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDeskTop\FatSheepCrisis\01-FatSheepCrisis\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCADB44F-DBEB-4F1B-AF75-7399381FF54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B018E0A-C8E1-4862-AAB9-DDC86661EA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/01-FatSheepCrisis/Assets/Excel/WeaponConfig.xlsx
+++ b/01-FatSheepCrisis/Assets/Excel/WeaponConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDeskTop\FatSheepCrisis\01-FatSheepCrisis\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B018E0A-C8E1-4862-AAB9-DDC86661EA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09955B72-CC91-4760-B2B5-4BCAF5AAD92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,7 +71,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一把没什么用的铁斧头</t>
+    <t>铁锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一把没什么用的铁斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一柄没什么用的铁锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰神斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆之锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时附带火焰特效，对命中的敌人造成100%攻击力的伤害并添加灼烧状态，敌人在灼烧状态下每秒受到20%攻击力的伤害，持续5秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时附带雷电特效，对命中的敌人造成100%攻击力的伤害并添加感电状态，敌人在感电状态下每秒受到10%攻击力的伤害并且减少10%移动速度，持续5秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,8 +139,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -397,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -411,72 +441,374 @@
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="23.625" customWidth="1"/>
+    <col min="10" max="10" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/01-FatSheepCrisis/Assets/Excel/WeaponConfig.xlsx
+++ b/01-FatSheepCrisis/Assets/Excel/WeaponConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDeskTop\FatSheepCrisis\01-FatSheepCrisis\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Project\FatSheepCrisis\01-FatSheepCrisis\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09955B72-CC91-4760-B2B5-4BCAF5AAD92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D0D4A8-4408-4EFB-A582-89AFEC6C6480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AttackSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillDescription</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,6 +92,10 @@
   </si>
   <si>
     <t>攻击时附带雷电特效，对命中的敌人造成100%攻击力的伤害并添加感电状态，敌人在感电状态下每秒受到10%攻击力的伤害并且减少10%移动速度，持续5秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackInterval</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +430,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -455,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -473,7 +473,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1"/>
     </row>
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1"/>
     </row>
@@ -515,7 +515,7 @@
         <v>1002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -539,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -547,7 +547,7 @@
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>50</v>
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -579,7 +579,7 @@
         <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>100</v>
@@ -603,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">

--- a/01-FatSheepCrisis/Assets/Excel/WeaponConfig.xlsx
+++ b/01-FatSheepCrisis/Assets/Excel/WeaponConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Project\FatSheepCrisis\01-FatSheepCrisis\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D0D4A8-4408-4EFB-A582-89AFEC6C6480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC1D4A7-CD5E-4EA7-881A-5D45D74C09ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,30 @@
   </si>
   <si>
     <t>AttackInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一柄没什么用的铁剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,24 +451,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="31.25" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,173 +476,211 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1002</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.5</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
         <v>1.5</v>
       </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
       <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1">
         <v>50</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>30</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>60</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>1.5</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
       <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
         <v>100</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
       <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>30</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>60</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
       <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -629,8 +691,9 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -641,8 +704,9 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -653,8 +717,9 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -665,8 +730,9 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -677,8 +743,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -689,8 +756,9 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -701,8 +769,9 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -713,8 +782,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -725,8 +795,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -737,8 +808,9 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -749,8 +821,9 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -761,8 +834,9 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -773,8 +847,9 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -785,8 +860,9 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -797,8 +873,9 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -809,6 +886,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/01-FatSheepCrisis/Assets/Excel/WeaponConfig.xlsx
+++ b/01-FatSheepCrisis/Assets/Excel/WeaponConfig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Project\FatSheepCrisis\01-FatSheepCrisis\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDeskTop\FatSheepCrisis\01-FatSheepCrisis\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC1D4A7-CD5E-4EA7-881A-5D45D74C09ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B68FAD-B868-4279-A153-9BBAF04B05F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,10 @@
   </si>
   <si>
     <t>一柄没什么用的铁剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -502,7 +506,9 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -538,7 +544,9 @@
       <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -574,6 +582,9 @@
       <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -609,6 +620,9 @@
       <c r="K4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -644,6 +658,9 @@
       <c r="K5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -678,6 +695,9 @@
       </c>
       <c r="K6" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
